--- a/data/trans_dic/P33_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7850497834511448</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7716044516135154</v>
+        <v>0.7716044516135155</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.814915995528579</v>
@@ -685,7 +685,7 @@
         <v>0.7982222943278854</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.7278946262453115</v>
+        <v>0.7278946262453114</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.8201773316370765</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7845667150179917</v>
+        <v>0.7816142329650644</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7131666506004779</v>
+        <v>0.7164844784986537</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7434886685025818</v>
+        <v>0.7398955248680725</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7324379480121159</v>
+        <v>0.7319164361432059</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7641632616789477</v>
+        <v>0.768210403299581</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7482463590642257</v>
+        <v>0.7408589546227267</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7502856243302453</v>
+        <v>0.7504999816528835</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6917354728951803</v>
+        <v>0.688092235001203</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7883319712036078</v>
+        <v>0.7905105456746347</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7397097506490781</v>
+        <v>0.7463586547466722</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7602970773153291</v>
+        <v>0.7587579634238796</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7223857061715505</v>
+        <v>0.7241965260739948</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8568157897178859</v>
+        <v>0.8568093676539142</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8011011883768825</v>
+        <v>0.8047714525257563</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8234500898364903</v>
+        <v>0.8233689092360601</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8045477864776726</v>
+        <v>0.8076241741895818</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8579721027264239</v>
+        <v>0.8555455887798713</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.841636030018831</v>
+        <v>0.8420654719191516</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8390905938706014</v>
+        <v>0.8391384257523078</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7604362398848459</v>
+        <v>0.7597418443106368</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8478367209562618</v>
+        <v>0.8456186763815354</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8065927651355771</v>
+        <v>0.8075695585008301</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8196864429850191</v>
+        <v>0.8200182457171965</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7766632237326369</v>
+        <v>0.7760819838149958</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7394783426087118</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7747155841135613</v>
+        <v>0.7747155841135616</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8212792617781766</v>
@@ -821,7 +821,7 @@
         <v>0.7985789488922566</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.7241125733977556</v>
+        <v>0.7241125733977555</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.8418438490614252</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.818288624588259</v>
+        <v>0.8257024492420527</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6979157019515437</v>
+        <v>0.7015823581293291</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6885073787728672</v>
+        <v>0.6858779040401339</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.733794546571139</v>
+        <v>0.7356644127403696</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7789519151265788</v>
+        <v>0.7811575199092653</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6646490506613875</v>
+        <v>0.6648822319191832</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7537611114824855</v>
+        <v>0.7543010234009276</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6838181452380325</v>
+        <v>0.6839486315066838</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.813190885673585</v>
+        <v>0.8086599874109408</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6965374140041891</v>
+        <v>0.7023811457716292</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7339664792002685</v>
+        <v>0.7362826102399425</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7260736199144514</v>
+        <v>0.721942595683165</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8978544883958471</v>
+        <v>0.9014597190884048</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7925279667311845</v>
+        <v>0.7897406856944362</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7818175257245424</v>
+        <v>0.7802101634404457</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8131060932314863</v>
+        <v>0.8126627758527309</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8622587655875421</v>
+        <v>0.8590277292439888</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7680027319849208</v>
+        <v>0.7729738078237105</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8374433549384785</v>
+        <v>0.8393355043160203</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7583244144233633</v>
+        <v>0.7632427274987267</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8663900527256023</v>
+        <v>0.865072434662341</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.764449954662434</v>
+        <v>0.7722992240972008</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7997447057893586</v>
+        <v>0.7999814040274716</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7757881643723982</v>
+        <v>0.7760723068019423</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7512635388653002</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6760446916683712</v>
+        <v>0.6760446916683711</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.740205557927481</v>
@@ -957,7 +957,7 @@
         <v>0.7613909142057039</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.7104427531001183</v>
+        <v>0.7104427531001182</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.7920565716039076</v>
@@ -969,7 +969,7 @@
         <v>0.7536679643072903</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.6857870082184225</v>
+        <v>0.6857870082184226</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7719887796276046</v>
+        <v>0.7728285607142744</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6919832618953531</v>
+        <v>0.6957646984458375</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7084194859715184</v>
+        <v>0.7126929569670045</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6207262575471476</v>
+        <v>0.6278335118338407</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6623223720217163</v>
+        <v>0.6636886294826292</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6543756878750485</v>
+        <v>0.6463363833314237</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6779814139023836</v>
+        <v>0.6796990025366223</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6581850814965232</v>
+        <v>0.6478704826431033</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.756257958153993</v>
+        <v>0.763661431677903</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6921566278709229</v>
+        <v>0.6908449318922163</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7209340968339754</v>
+        <v>0.7226817465774733</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6503707412895258</v>
+        <v>0.6504848928438598</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8424767969805208</v>
+        <v>0.8446586123019888</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7635753614520493</v>
+        <v>0.764944374793158</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7861165040095851</v>
+        <v>0.7896306290508867</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7150403416967024</v>
+        <v>0.722506683967569</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8039049042395081</v>
+        <v>0.807363198086993</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7591864261556726</v>
+        <v>0.7645028578828119</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8277075478324151</v>
+        <v>0.8307356010301488</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7633527361600229</v>
+        <v>0.7631386784272552</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8208756909304181</v>
+        <v>0.8244545538616754</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7517883782914729</v>
+        <v>0.7512296690218514</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7857638751471375</v>
+        <v>0.7868972253666671</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7211702119467718</v>
+        <v>0.721012331518874</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.755570839897007</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7438793316195603</v>
+        <v>0.7438793316195602</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7868377106260649</v>
@@ -1093,7 +1093,7 @@
         <v>0.7095287065236203</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6589976866181849</v>
+        <v>0.658997686618185</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.782151008291303</v>
@@ -1105,7 +1105,7 @@
         <v>0.7363290841242831</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7068074611142575</v>
+        <v>0.7068074611142574</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7551242632886114</v>
+        <v>0.7540095833212132</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6985437910998533</v>
+        <v>0.7006650158805796</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7281623434689016</v>
+        <v>0.7313636282021413</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7157464559045161</v>
+        <v>0.7165487346283625</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7526326385399505</v>
+        <v>0.7538798408206572</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.676093000589883</v>
+        <v>0.6764705500727076</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6775670557377287</v>
+        <v>0.678831427681271</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6299020230711235</v>
+        <v>0.6324631181703694</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7640659965431836</v>
+        <v>0.7612307644780423</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7012181527145716</v>
+        <v>0.6978490293300088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7146861656753655</v>
+        <v>0.7152039986144613</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6867627215027053</v>
+        <v>0.6878452114371948</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8009685855215896</v>
+        <v>0.8027950200826232</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7545866170801241</v>
+        <v>0.7544839899620474</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.777516022268387</v>
+        <v>0.7793168330974406</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7694908015230926</v>
+        <v>0.7694829173703259</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8160355401674523</v>
+        <v>0.8165616653765813</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7421800204502353</v>
+        <v>0.7465093651419553</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7406123756219931</v>
+        <v>0.74371109438553</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6847672657439551</v>
+        <v>0.6890582829915927</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7996972085325037</v>
+        <v>0.7983035789691032</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7398222471923029</v>
+        <v>0.7407717123330859</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7552306323944069</v>
+        <v>0.7562491175340985</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7253366518674413</v>
+        <v>0.7276472350019443</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.7760973724645914</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7450993555750339</v>
+        <v>0.7450993555750338</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7519102474585719</v>
@@ -1241,7 +1241,7 @@
         <v>0.7284657026957635</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.6938208481919805</v>
+        <v>0.6938208481919804</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7452480544350262</v>
+        <v>0.7460575478330889</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6696385291787841</v>
+        <v>0.6788892160285473</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7384992999578811</v>
+        <v>0.7446248195161714</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7028597832087132</v>
+        <v>0.7053242880649292</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7092064357952618</v>
+        <v>0.7138551759338828</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.583531638903069</v>
+        <v>0.5811194966155087</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6522672857713829</v>
+        <v>0.6550975163968591</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6304788338482246</v>
+        <v>0.6278438664518579</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7394553627026553</v>
+        <v>0.7360416947027992</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6302621917188558</v>
+        <v>0.6332785319267018</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7030694812721546</v>
+        <v>0.7047138142741749</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6698939396888861</v>
+        <v>0.6694218697734509</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8311272263660605</v>
+        <v>0.8317689457179067</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7573494400522178</v>
+        <v>0.7536657685812019</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8072665840694213</v>
+        <v>0.8127487155777079</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7812130529673807</v>
+        <v>0.7803354183510934</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7863891530011946</v>
+        <v>0.788796759756433</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6565042595522345</v>
+        <v>0.656142655538629</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7234685844657409</v>
+        <v>0.7244901501991049</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6865035586702327</v>
+        <v>0.6868822477800146</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7966429580171334</v>
+        <v>0.792224006424587</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6858391429505155</v>
+        <v>0.6875617087841945</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.75355209391348</v>
+        <v>0.753787507394918</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7154247052670851</v>
+        <v>0.7146601663288117</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.8445227071947242</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.8990710771734056</v>
+        <v>0.8990710771734055</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.717804741610695</v>
@@ -1365,7 +1365,7 @@
         <v>0.6746452772491938</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.7218877521168294</v>
+        <v>0.7218877521168292</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.757305822703329</v>
@@ -1377,7 +1377,7 @@
         <v>0.7104152625270463</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.7614208575392872</v>
+        <v>0.7614208575392871</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8879223788779242</v>
+        <v>0.8875155112131022</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7736181583736697</v>
+        <v>0.7774321238166847</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7964949469756977</v>
+        <v>0.7980013365928692</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8151436409564937</v>
+        <v>0.8302599359197343</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6923347394042676</v>
+        <v>0.6917836803595038</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6006449835884843</v>
+        <v>0.6015335184666691</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.6456518681866468</v>
+        <v>0.6438331342307138</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.694430973295493</v>
+        <v>0.6923340105070768</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7353375822392724</v>
+        <v>0.7352028966406637</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6410989369847401</v>
+        <v>0.6447695727398387</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.6856550218625954</v>
+        <v>0.682948897648616</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.7347017567852016</v>
+        <v>0.7314149066066132</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9501231990899093</v>
+        <v>0.9528349040753856</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8695714697540152</v>
+        <v>0.870944767803343</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8837021029393675</v>
+        <v>0.8844243253052143</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9486771197319381</v>
+        <v>0.951696607256643</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.744130018676342</v>
+        <v>0.7431454997984229</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6605849380988671</v>
+        <v>0.6611618088883819</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.709494714192905</v>
+        <v>0.7037937311739517</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.749940219276874</v>
+        <v>0.7509579387891653</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7781132875244806</v>
+        <v>0.7769603590716611</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6931002654411274</v>
+        <v>0.6969352367326587</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7341441073379554</v>
+        <v>0.7322287727162182</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.7858905617547107</v>
+        <v>0.7880607769282169</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.7149896765116472</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.6931564254346304</v>
+        <v>0.6931564254346303</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.7863944729839251</v>
@@ -1513,7 +1513,7 @@
         <v>0.7410531707209287</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.7229533923115414</v>
+        <v>0.7229533923115412</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7998520281008531</v>
+        <v>0.8007775485194508</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7244756355491205</v>
+        <v>0.7249922809279468</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7522537343676908</v>
+        <v>0.7542896373719125</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7385103802147803</v>
+        <v>0.738811791732861</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7457792133784279</v>
+        <v>0.7445732651672021</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6599431793895235</v>
+        <v>0.6588410237900137</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6991649775578347</v>
+        <v>0.6998102912325906</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6792203514758895</v>
+        <v>0.6790425907888671</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7758117443051582</v>
+        <v>0.7748243212729595</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6955354210219392</v>
+        <v>0.6943351795782425</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.7300788308533822</v>
+        <v>0.7298573437702878</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7118123915357422</v>
+        <v>0.7127384818581555</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8275406910295158</v>
+        <v>0.8288122332686209</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7551291194765384</v>
+        <v>0.7560402503205947</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7826706177599666</v>
+        <v>0.7828918050559416</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7699392899890297</v>
+        <v>0.7705878507604988</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7757112658939272</v>
+        <v>0.7733563498708368</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6921650286280577</v>
+        <v>0.6902622952994385</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.732320290651704</v>
+        <v>0.7295353787064853</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7066583893457004</v>
+        <v>0.7062872873476249</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7969179812424174</v>
+        <v>0.7949803236707743</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.7188145706707891</v>
+        <v>0.7184975822071072</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7516043227724432</v>
+        <v>0.7525170434285097</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7337433559585954</v>
+        <v>0.7330657484412849</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>366206</v>
+        <v>364828</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>311804</v>
+        <v>313255</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>319025</v>
+        <v>317483</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>395574</v>
+        <v>395293</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>234354</v>
+        <v>235595</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>235289</v>
+        <v>232966</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>260390</v>
+        <v>260465</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>333685</v>
+        <v>331927</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>609730</v>
+        <v>611415</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>556014</v>
+        <v>561012</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>590102</v>
+        <v>588908</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>738616</v>
+        <v>740467</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>399929</v>
+        <v>399926</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>350250</v>
+        <v>351855</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>353336</v>
+        <v>353301</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>434519</v>
+        <v>436181</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>263123</v>
+        <v>262379</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>264656</v>
+        <v>264791</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>291211</v>
+        <v>291227</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>366825</v>
+        <v>366490</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>655753</v>
+        <v>654038</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>606288</v>
+        <v>607022</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>636197</v>
+        <v>636455</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>794113</v>
+        <v>793518</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>297875</v>
+        <v>300574</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>291632</v>
+        <v>293165</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>259096</v>
+        <v>258106</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>349771</v>
+        <v>350663</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>288936</v>
+        <v>289754</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>224659</v>
+        <v>224738</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>280605</v>
+        <v>280806</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>283826</v>
+        <v>283880</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>597655</v>
+        <v>594325</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>526494</v>
+        <v>530911</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>549438</v>
+        <v>551172</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>647456</v>
+        <v>643772</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>326839</v>
+        <v>328151</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>331167</v>
+        <v>330003</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>294210</v>
+        <v>293605</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>387576</v>
+        <v>387365</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>319837</v>
+        <v>318638</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>259593</v>
+        <v>261274</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>311758</v>
+        <v>312462</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>314750</v>
+        <v>316792</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>636754</v>
+        <v>635786</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>577827</v>
+        <v>583760</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>598679</v>
+        <v>598856</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>691787</v>
+        <v>692041</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>414415</v>
+        <v>414866</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>434125</v>
+        <v>436497</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>368610</v>
+        <v>370833</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>286809</v>
+        <v>290093</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>108992</v>
+        <v>109217</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>168030</v>
+        <v>165966</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>109830</v>
+        <v>110109</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>120167</v>
+        <v>118284</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>530421</v>
+        <v>535614</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>611965</v>
+        <v>610806</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>491910</v>
+        <v>493102</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>419247</v>
+        <v>419320</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>452254</v>
+        <v>453425</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>479039</v>
+        <v>479898</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>409038</v>
+        <v>410866</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>330387</v>
+        <v>333837</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>132291</v>
+        <v>132860</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>194943</v>
+        <v>196308</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>134085</v>
+        <v>134576</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>139368</v>
+        <v>139329</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>575743</v>
+        <v>578253</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>664688</v>
+        <v>664194</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>536145</v>
+        <v>536918</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>464886</v>
+        <v>464784</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>918597</v>
+        <v>917241</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>804725</v>
+        <v>807169</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>834830</v>
+        <v>838500</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>772291</v>
+        <v>773157</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>532241</v>
+        <v>533123</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>518331</v>
+        <v>518621</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>557733</v>
+        <v>558773</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>527014</v>
+        <v>529157</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1469802</v>
+        <v>1464348</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1345400</v>
+        <v>1338936</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1407667</v>
+        <v>1408687</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1315605</v>
+        <v>1317679</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>974366</v>
+        <v>976588</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>869287</v>
+        <v>869169</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>891414</v>
+        <v>893478</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>830281</v>
+        <v>830273</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>577078</v>
+        <v>577450</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>568998</v>
+        <v>572317</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>609628</v>
+        <v>612178</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>572918</v>
+        <v>576508</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1538344</v>
+        <v>1535663</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1419468</v>
+        <v>1421290</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1487524</v>
+        <v>1489530</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1389500</v>
+        <v>1393926</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>257482</v>
+        <v>257761</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>341039</v>
+        <v>345750</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>457565</v>
+        <v>461361</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>384938</v>
+        <v>386288</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>403363</v>
+        <v>406007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>443799</v>
+        <v>441965</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>480094</v>
+        <v>482177</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>503103</v>
+        <v>501000</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>676047</v>
+        <v>672926</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>800325</v>
+        <v>804155</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>953099</v>
+        <v>955328</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>901438</v>
+        <v>900803</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>287153</v>
+        <v>287375</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>385709</v>
+        <v>383833</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>500173</v>
+        <v>503569</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>427850</v>
+        <v>427369</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>447260</v>
+        <v>448630</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>499298</v>
+        <v>499023</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>532501</v>
+        <v>533253</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>547809</v>
+        <v>548111</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>728331</v>
+        <v>724291</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>870898</v>
+        <v>873085</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1021535</v>
+        <v>1021854</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>962706</v>
+        <v>961677</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>260755</v>
+        <v>260636</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>205727</v>
+        <v>206741</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>228710</v>
+        <v>229142</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>190432</v>
+        <v>193964</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>857090</v>
+        <v>856407</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>663311</v>
+        <v>664293</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>695078</v>
+        <v>693120</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>564874</v>
+        <v>563168</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1126272</v>
+        <v>1126065</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>878472</v>
+        <v>883502</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>935026</v>
+        <v>931336</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>769271</v>
+        <v>765829</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>279022</v>
+        <v>279818</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>231243</v>
+        <v>231609</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>253751</v>
+        <v>253958</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>221628</v>
+        <v>222333</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>921211</v>
+        <v>919992</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>729505</v>
+        <v>730142</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>763809</v>
+        <v>757671</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>610027</v>
+        <v>610855</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1191789</v>
+        <v>1190023</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>949728</v>
+        <v>954982</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>1001151</v>
+        <v>998539</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>822868</v>
+        <v>825141</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2578125</v>
+        <v>2581108</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2470212</v>
+        <v>2471974</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2541832</v>
+        <v>2548711</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2465950</v>
+        <v>2466957</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2502884</v>
+        <v>2498836</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2336710</v>
+        <v>2332807</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2459002</v>
+        <v>2461272</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2396347</v>
+        <v>2395720</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>5104311</v>
+        <v>5097815</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>4834270</v>
+        <v>4825927</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>5034632</v>
+        <v>5033105</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>4888138</v>
+        <v>4894498</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2667372</v>
+        <v>2671471</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2574730</v>
+        <v>2577836</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2644610</v>
+        <v>2645357</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2570894</v>
+        <v>2573060</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2603337</v>
+        <v>2595434</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2450800</v>
+        <v>2444063</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>2575611</v>
+        <v>2565817</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>2493151</v>
+        <v>2491842</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5243176</v>
+        <v>5230428</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>4996070</v>
+        <v>4993866</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>5183072</v>
+        <v>5189367</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>5038742</v>
+        <v>5034089</v>
       </c>
     </row>
     <row r="32">
